--- a/xlsx/PM25DVtemplate.xlsx
+++ b/xlsx/PM25DVtemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwells01\Documents\EE_DVcalc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD0412D-E2AE-4125-978E-C5F27748487D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6CA304-A4DE-4690-B3A2-5EE5F1F34988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design_Value" sheetId="6" r:id="rId1"/>
@@ -1082,9 +1082,9 @@
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="e">
-        <f>ROUND(AVERAGE(B15:B17),1)</f>
-        <v>#DIV/0!</v>
+      <c r="C9" s="9" t="str">
+        <f>IF(AND(B15 = "",B16 = "",B17 = ""),"#N/A",ROUND(AVERAGE(B15:B17),1))</f>
+        <v>#N/A</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -1255,9 +1255,9 @@
         <f>LEFT(Daily_Year1!A2,4)</f>
         <v/>
       </c>
-      <c r="B15" s="11" t="e">
-        <f>ROUND(AVERAGE(I15:I18),2)</f>
-        <v>#DIV/0!</v>
+      <c r="B15" s="11" t="str">
+        <f>IF(AND(I15 = "",I16 = "",I17 = "",I18 = ""),"",ROUND(AVERAGE(I15:I18),2))</f>
+        <v/>
       </c>
       <c r="C15" s="9" t="e" cm="1">
         <f t="array" ref="C15">INDEX(Daily_Year1!C2:C367,_xlfn.XMATCH(F15,Daily_Year1!E2:E367))</f>
@@ -1280,9 +1280,9 @@
         <f>CONCATENATE(LEFT(Daily_Year1!A2,4),"-Q1")</f>
         <v>-Q1</v>
       </c>
-      <c r="I15" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,1,Daily_Year1!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I15" s="11" t="str">
+        <f>IF(J15 = 0,"",ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,1,Daily_Year1!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1292,9 +1292,9 @@
         <f>LEFT(Daily_Year2!A2,4)</f>
         <v/>
       </c>
-      <c r="B16" s="11" t="e">
-        <f>ROUND(AVERAGE(I19:I22),2)</f>
-        <v>#DIV/0!</v>
+      <c r="B16" s="11" t="str">
+        <f>IF(AND(I19 = "",I20 = "",I21 = "",I22 = ""),"",ROUND(AVERAGE(I19:I22),2))</f>
+        <v/>
       </c>
       <c r="C16" s="9" t="e" cm="1">
         <f t="array" ref="C16">INDEX(Daily_Year2!C2:C367,_xlfn.XMATCH(F16,Daily_Year2!E2:E367))</f>
@@ -1317,9 +1317,9 @@
         <f>CONCATENATE(LEFT(Daily_Year1!A2,4),"-Q2")</f>
         <v>-Q2</v>
       </c>
-      <c r="I16" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,2,Daily_Year1!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I16" s="11" t="str">
+        <f>IF(J16 = 0,"",ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,2,Daily_Year1!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1329,9 +1329,9 @@
         <f>LEFT(Daily_Year3!A2,4)</f>
         <v/>
       </c>
-      <c r="B17" s="11" t="e">
-        <f>ROUND(AVERAGE(I23:I26),2)</f>
-        <v>#DIV/0!</v>
+      <c r="B17" s="11" t="str">
+        <f>IF(AND(I23 = "",I24 = "",I25 = "",I26 = ""),"",ROUND(AVERAGE(I23:I26),2))</f>
+        <v/>
       </c>
       <c r="C17" s="9" t="e" cm="1">
         <f t="array" ref="C17">INDEX(Daily_Year3!C2:C367,_xlfn.XMATCH(F17,Daily_Year3!E2:E367))</f>
@@ -1354,9 +1354,9 @@
         <f>CONCATENATE(LEFT(Daily_Year1!A2,4),"-Q3")</f>
         <v>-Q3</v>
       </c>
-      <c r="I17" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,3,Daily_Year1!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I17" s="11" t="str">
+        <f>IF(J17 = 0,"",ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,3,Daily_Year1!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1367,9 +1367,9 @@
         <f>CONCATENATE(LEFT(Daily_Year1!A2,4),"-Q4")</f>
         <v>-Q4</v>
       </c>
-      <c r="I18" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,4,Daily_Year1!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I18" s="11" t="str">
+        <f>IF(J18 = 0,"",ROUND(AVERAGEIF(Daily_Year1!B$2:B$367,4,Daily_Year1!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1380,9 +1380,9 @@
         <f>CONCATENATE(LEFT(Daily_Year2!A2,4),"-Q1")</f>
         <v>-Q1</v>
       </c>
-      <c r="I19" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,1,Daily_Year2!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I19" s="11" t="str">
+        <f>IF(J19 = 0,"",ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,1,Daily_Year2!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1393,9 +1393,9 @@
         <f>CONCATENATE(LEFT(Daily_Year2!A2,4),"-Q2")</f>
         <v>-Q2</v>
       </c>
-      <c r="I20" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,2,Daily_Year2!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I20" s="11" t="str">
+        <f>IF(J20 = 0,"",ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,2,Daily_Year2!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1406,9 +1406,9 @@
         <f>CONCATENATE(LEFT(Daily_Year2!A2,4),"-Q3")</f>
         <v>-Q3</v>
       </c>
-      <c r="I21" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,3,Daily_Year2!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I21" s="11" t="str">
+        <f>IF(J21 = 0,"",ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,3,Daily_Year2!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1419,9 +1419,9 @@
         <f>CONCATENATE(LEFT(Daily_Year2!A2,4),"-Q4")</f>
         <v>-Q4</v>
       </c>
-      <c r="I22" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,4,Daily_Year2!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I22" s="11" t="str">
+        <f>IF(J22 = 0,"",ROUND(AVERAGEIF(Daily_Year2!B$2:B$367,4,Daily_Year2!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1432,9 +1432,9 @@
         <f>CONCATENATE(LEFT(Daily_Year3!A2,4),"-Q1")</f>
         <v>-Q1</v>
       </c>
-      <c r="I23" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,1,Daily_Year3!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I23" s="11" t="str">
+        <f>IF(J23 = 0,"",ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,1,Daily_Year3!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1445,9 +1445,9 @@
         <f>CONCATENATE(LEFT(Daily_Year3!A2,4),"-Q2")</f>
         <v>-Q2</v>
       </c>
-      <c r="I24" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,2,Daily_Year3!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I24" s="11" t="str">
+        <f>IF(J24 = 0,"",ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,2,Daily_Year3!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1458,9 +1458,9 @@
         <f>CONCATENATE(LEFT(Daily_Year3!A2,4),"-Q3")</f>
         <v>-Q3</v>
       </c>
-      <c r="I25" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,3,Daily_Year3!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I25" s="11" t="str">
+        <f>IF(J25 = 0,"",ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,3,Daily_Year3!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1471,9 +1471,9 @@
         <f>CONCATENATE(LEFT(Daily_Year3!A2,4),"-Q4")</f>
         <v>-Q4</v>
       </c>
-      <c r="I26" s="11" t="e">
-        <f>ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,4,Daily_Year3!C$2:C$367),2)</f>
-        <v>#DIV/0!</v>
+      <c r="I26" s="11" t="str">
+        <f>IF(J26 = 0,"",ROUND(AVERAGEIF(Daily_Year3!B$2:B$367,4,Daily_Year3!C$2:C$367),2))</f>
+        <v/>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
